--- a/ChainSight 1st SIT.xlsx
+++ b/ChainSight 1st SIT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pgone-my.sharepoint.com/personal/zhang_s_37_pg_com/Documents/9-unattended planning/ChainSight/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang.s.37\OneDrive - Procter and Gamble\Documents\GitHub\chainsight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{944853F5-DCC8-4923-8F79-CC3B265C7EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2580BE47-0769-48EA-8015-4BCF20D4642D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5962DA8C-7EC6-4E67-90FE-88C71EB017E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5988" yWindow="876" windowWidth="15132" windowHeight="10980" tabRatio="761" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="3330" windowWidth="20985" windowHeight="11235" tabRatio="761" firstSheet="20" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="26" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="248">
   <si>
     <t>material</t>
   </si>
@@ -1220,19 +1220,19 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="36.21875" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>84</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>83</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>89</v>
       </c>
@@ -1304,12 +1304,12 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>103</v>
       </c>
@@ -1327,13 +1327,13 @@
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80813644</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>80813644</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>80813608</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>80813608</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>80813608</v>
       </c>
@@ -1444,15 +1444,15 @@
       <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80813644</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>80813608</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>80813608</v>
       </c>
@@ -1536,12 +1536,12 @@
       <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80813644</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>80813644</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>80813644</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>80813644</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>80813644</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>80813644</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80813644</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80813644</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>80813644</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>80813644</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>80813644</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>80813644</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>80813644</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>80813644</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>80813644</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>80813644</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>80813644</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>80813644</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>80813644</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>80813644</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>80813644</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>80813644</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>80813644</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>80813644</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>80813644</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>80813644</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>80813644</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>80813644</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>80813644</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>80813644</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>80813644</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>80813644</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>80813644</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>80813644</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>80813644</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>80813644</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>80813644</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>80813644</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>80813608</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>80813608</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>80813608</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>80813608</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>80813608</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>80813608</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>80813608</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>80813608</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>80813608</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>80813608</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>80813608</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>80813608</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>80813608</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>80813608</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>80813608</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>80813608</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>80813608</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>80813608</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>80813608</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>80813608</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>80813608</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>80813608</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>80813608</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>80813608</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>80813608</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>80813608</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>80813608</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>80813608</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>80813608</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>80813608</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>80813608</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>80813608</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>80813608</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>80813608</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>80813608</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>80813608</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>80813608</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>80813608</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>80813608</v>
       </c>
@@ -2667,14 +2667,14 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="8"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="8"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80813644</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>80813644</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>80813608</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>80813608</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>80813608</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>80813608</v>
       </c>
@@ -2795,20 +2795,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80813608</v>
       </c>
@@ -2906,9 +2906,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
-  </customProperties>
 </worksheet>
 </file>
 
@@ -2920,12 +2917,12 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2939,7 +2936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -2953,7 +2950,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>112</v>
       </c>
@@ -2967,7 +2964,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>112</v>
       </c>
@@ -2981,7 +2978,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>112</v>
       </c>
@@ -2995,7 +2992,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>112</v>
       </c>
@@ -3009,7 +3006,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>112</v>
       </c>
@@ -3023,7 +3020,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>112</v>
       </c>
@@ -3037,7 +3034,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -3051,7 +3048,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>112</v>
       </c>
@@ -3065,7 +3062,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>112</v>
       </c>
@@ -3079,7 +3076,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>112</v>
       </c>
@@ -3093,7 +3090,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>112</v>
       </c>
@@ -3107,7 +3104,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>112</v>
       </c>
@@ -3121,7 +3118,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>112</v>
       </c>
@@ -3135,7 +3132,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>112</v>
       </c>
@@ -3149,7 +3146,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>112</v>
       </c>
@@ -3163,7 +3160,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>112</v>
       </c>
@@ -3177,7 +3174,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>112</v>
       </c>
@@ -3191,7 +3188,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>112</v>
       </c>
@@ -3205,7 +3202,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>112</v>
       </c>
@@ -3219,7 +3216,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>112</v>
       </c>
@@ -3233,7 +3230,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>112</v>
       </c>
@@ -3247,7 +3244,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>112</v>
       </c>
@@ -3261,7 +3258,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>112</v>
       </c>
@@ -3275,7 +3272,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>112</v>
       </c>
@@ -3289,7 +3286,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>112</v>
       </c>
@@ -3303,7 +3300,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>112</v>
       </c>
@@ -3317,7 +3314,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>112</v>
       </c>
@@ -3331,7 +3328,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>112</v>
       </c>
@@ -3345,7 +3342,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>112</v>
       </c>
@@ -3359,7 +3356,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>112</v>
       </c>
@@ -3373,7 +3370,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>112</v>
       </c>
@@ -3387,7 +3384,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>112</v>
       </c>
@@ -3401,7 +3398,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>112</v>
       </c>
@@ -3415,7 +3412,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>112</v>
       </c>
@@ -3429,7 +3426,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>112</v>
       </c>
@@ -3443,7 +3440,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>112</v>
       </c>
@@ -3457,7 +3454,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>112</v>
       </c>
@@ -3471,7 +3468,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>112</v>
       </c>
@@ -3485,7 +3482,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>112</v>
       </c>
@@ -3499,7 +3496,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>112</v>
       </c>
@@ -3513,7 +3510,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>112</v>
       </c>
@@ -3527,7 +3524,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>112</v>
       </c>
@@ -3541,7 +3538,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>112</v>
       </c>
@@ -3555,7 +3552,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>112</v>
       </c>
@@ -3569,7 +3566,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>112</v>
       </c>
@@ -3583,7 +3580,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>112</v>
       </c>
@@ -3597,7 +3594,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>112</v>
       </c>
@@ -3611,7 +3608,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>112</v>
       </c>
@@ -3625,7 +3622,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>112</v>
       </c>
@@ -3639,7 +3636,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>112</v>
       </c>
@@ -3653,7 +3650,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>112</v>
       </c>
@@ -3667,7 +3664,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>112</v>
       </c>
@@ -3681,7 +3678,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>112</v>
       </c>
@@ -3695,7 +3692,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>112</v>
       </c>
@@ -3709,7 +3706,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>112</v>
       </c>
@@ -3723,7 +3720,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>112</v>
       </c>
@@ -3737,7 +3734,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>112</v>
       </c>
@@ -3751,7 +3748,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>112</v>
       </c>
@@ -3765,7 +3762,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>112</v>
       </c>
@@ -3779,7 +3776,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>112</v>
       </c>
@@ -3793,7 +3790,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>112</v>
       </c>
@@ -3807,7 +3804,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>112</v>
       </c>
@@ -3821,7 +3818,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>112</v>
       </c>
@@ -3835,7 +3832,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>112</v>
       </c>
@@ -3849,7 +3846,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>112</v>
       </c>
@@ -3863,7 +3860,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>112</v>
       </c>
@@ -3877,7 +3874,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>112</v>
       </c>
@@ -3891,7 +3888,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>112</v>
       </c>
@@ -3905,7 +3902,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>112</v>
       </c>
@@ -3919,7 +3916,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>112</v>
       </c>
@@ -3933,7 +3930,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>112</v>
       </c>
@@ -3947,7 +3944,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>112</v>
       </c>
@@ -3961,7 +3958,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>112</v>
       </c>
@@ -3975,7 +3972,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>112</v>
       </c>
@@ -3989,7 +3986,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>112</v>
       </c>
@@ -4003,7 +4000,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>112</v>
       </c>
@@ -4017,7 +4014,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>112</v>
       </c>
@@ -4031,7 +4028,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>112</v>
       </c>
@@ -4045,7 +4042,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>112</v>
       </c>
@@ -4059,7 +4056,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>112</v>
       </c>
@@ -4073,7 +4070,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>112</v>
       </c>
@@ -4087,7 +4084,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>112</v>
       </c>
@@ -4101,7 +4098,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>112</v>
       </c>
@@ -4115,7 +4112,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>112</v>
       </c>
@@ -4129,7 +4126,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>112</v>
       </c>
@@ -4143,7 +4140,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>112</v>
       </c>
@@ -4157,7 +4154,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>112</v>
       </c>
@@ -4171,7 +4168,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>112</v>
       </c>
@@ -4185,7 +4182,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>112</v>
       </c>
@@ -4199,7 +4196,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>112</v>
       </c>
@@ -4213,7 +4210,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>112</v>
       </c>
@@ -4227,7 +4224,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>112</v>
       </c>
@@ -4241,7 +4238,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>112</v>
       </c>
@@ -4255,7 +4252,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>112</v>
       </c>
@@ -4269,7 +4266,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>112</v>
       </c>
@@ -4283,7 +4280,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>112</v>
       </c>
@@ -4297,7 +4294,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>112</v>
       </c>
@@ -4311,7 +4308,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>112</v>
       </c>
@@ -4325,7 +4322,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>112</v>
       </c>
@@ -4339,7 +4336,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>112</v>
       </c>
@@ -4353,7 +4350,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>112</v>
       </c>
@@ -4367,7 +4364,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>112</v>
       </c>
@@ -4381,7 +4378,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>112</v>
       </c>
@@ -4395,7 +4392,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>112</v>
       </c>
@@ -4409,7 +4406,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>112</v>
       </c>
@@ -4423,7 +4420,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>112</v>
       </c>
@@ -4437,7 +4434,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>112</v>
       </c>
@@ -4451,7 +4448,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>112</v>
       </c>
@@ -4465,7 +4462,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>112</v>
       </c>
@@ -4479,7 +4476,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>112</v>
       </c>
@@ -4493,7 +4490,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>112</v>
       </c>
@@ -4507,7 +4504,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>112</v>
       </c>
@@ -4521,7 +4518,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>112</v>
       </c>
@@ -4535,7 +4532,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>112</v>
       </c>
@@ -4549,7 +4546,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>112</v>
       </c>
@@ -4563,7 +4560,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>112</v>
       </c>
@@ -4577,7 +4574,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>112</v>
       </c>
@@ -4591,7 +4588,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>112</v>
       </c>
@@ -4605,7 +4602,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>112</v>
       </c>
@@ -4619,7 +4616,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>112</v>
       </c>
@@ -4633,7 +4630,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>112</v>
       </c>
@@ -4647,7 +4644,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>113</v>
       </c>
@@ -4661,7 +4658,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>113</v>
       </c>
@@ -4675,7 +4672,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>113</v>
       </c>
@@ -4689,7 +4686,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>113</v>
       </c>
@@ -4703,7 +4700,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>113</v>
       </c>
@@ -4717,7 +4714,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>113</v>
       </c>
@@ -4731,7 +4728,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>113</v>
       </c>
@@ -4745,7 +4742,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>113</v>
       </c>
@@ -4759,7 +4756,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>113</v>
       </c>
@@ -4773,7 +4770,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>113</v>
       </c>
@@ -4787,7 +4784,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>113</v>
       </c>
@@ -4801,7 +4798,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>113</v>
       </c>
@@ -4815,7 +4812,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>113</v>
       </c>
@@ -4829,7 +4826,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>113</v>
       </c>
@@ -4843,7 +4840,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>113</v>
       </c>
@@ -4857,7 +4854,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>113</v>
       </c>
@@ -4871,7 +4868,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>113</v>
       </c>
@@ -4885,7 +4882,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>113</v>
       </c>
@@ -4899,7 +4896,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>113</v>
       </c>
@@ -4913,7 +4910,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>113</v>
       </c>
@@ -4927,7 +4924,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>113</v>
       </c>
@@ -4941,7 +4938,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>113</v>
       </c>
@@ -4955,7 +4952,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>113</v>
       </c>
@@ -4969,7 +4966,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>113</v>
       </c>
@@ -4983,7 +4980,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>113</v>
       </c>
@@ -4997,7 +4994,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>113</v>
       </c>
@@ -5011,7 +5008,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>113</v>
       </c>
@@ -5025,7 +5022,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>113</v>
       </c>
@@ -5039,7 +5036,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>113</v>
       </c>
@@ -5053,7 +5050,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>113</v>
       </c>
@@ -5067,7 +5064,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>113</v>
       </c>
@@ -5081,7 +5078,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>113</v>
       </c>
@@ -5095,7 +5092,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>113</v>
       </c>
@@ -5109,7 +5106,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>113</v>
       </c>
@@ -5123,7 +5120,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>113</v>
       </c>
@@ -5137,7 +5134,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>113</v>
       </c>
@@ -5151,7 +5148,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>113</v>
       </c>
@@ -5165,7 +5162,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>113</v>
       </c>
@@ -5179,7 +5176,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>113</v>
       </c>
@@ -5193,7 +5190,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>113</v>
       </c>
@@ -5207,7 +5204,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>113</v>
       </c>
@@ -5221,7 +5218,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>113</v>
       </c>
@@ -5235,7 +5232,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>113</v>
       </c>
@@ -5249,7 +5246,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>113</v>
       </c>
@@ -5263,7 +5260,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>113</v>
       </c>
@@ -5277,7 +5274,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>113</v>
       </c>
@@ -5291,7 +5288,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>113</v>
       </c>
@@ -5305,7 +5302,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>113</v>
       </c>
@@ -5319,7 +5316,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>113</v>
       </c>
@@ -5333,7 +5330,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>113</v>
       </c>
@@ -5347,7 +5344,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>113</v>
       </c>
@@ -5361,7 +5358,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>113</v>
       </c>
@@ -5375,7 +5372,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>113</v>
       </c>
@@ -5389,7 +5386,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>113</v>
       </c>
@@ -5403,7 +5400,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>113</v>
       </c>
@@ -5417,7 +5414,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>113</v>
       </c>
@@ -5431,7 +5428,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>113</v>
       </c>
@@ -5445,7 +5442,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>113</v>
       </c>
@@ -5459,7 +5456,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>113</v>
       </c>
@@ -5473,7 +5470,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>113</v>
       </c>
@@ -5487,7 +5484,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>113</v>
       </c>
@@ -5501,7 +5498,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>113</v>
       </c>
@@ -5515,7 +5512,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>113</v>
       </c>
@@ -5529,7 +5526,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>113</v>
       </c>
@@ -5543,7 +5540,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>113</v>
       </c>
@@ -5557,7 +5554,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>113</v>
       </c>
@@ -5571,7 +5568,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>113</v>
       </c>
@@ -5585,7 +5582,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>113</v>
       </c>
@@ -5599,7 +5596,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>113</v>
       </c>
@@ -5613,7 +5610,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>113</v>
       </c>
@@ -5627,7 +5624,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>113</v>
       </c>
@@ -5641,7 +5638,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>113</v>
       </c>
@@ -5655,7 +5652,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>113</v>
       </c>
@@ -5669,7 +5666,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>113</v>
       </c>
@@ -5683,7 +5680,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>113</v>
       </c>
@@ -5697,7 +5694,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>113</v>
       </c>
@@ -5711,7 +5708,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>113</v>
       </c>
@@ -5725,7 +5722,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>113</v>
       </c>
@@ -5739,7 +5736,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>113</v>
       </c>
@@ -5753,7 +5750,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>113</v>
       </c>
@@ -5767,7 +5764,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>113</v>
       </c>
@@ -5781,7 +5778,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>113</v>
       </c>
@@ -5795,7 +5792,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>113</v>
       </c>
@@ -5809,7 +5806,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>113</v>
       </c>
@@ -5823,7 +5820,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>113</v>
       </c>
@@ -5837,7 +5834,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>113</v>
       </c>
@@ -5851,7 +5848,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>113</v>
       </c>
@@ -5865,7 +5862,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>113</v>
       </c>
@@ -5879,7 +5876,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>113</v>
       </c>
@@ -5893,7 +5890,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>113</v>
       </c>
@@ -5907,7 +5904,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>113</v>
       </c>
@@ -5921,7 +5918,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>113</v>
       </c>
@@ -5935,7 +5932,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>113</v>
       </c>
@@ -5949,7 +5946,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>113</v>
       </c>
@@ -5963,7 +5960,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>113</v>
       </c>
@@ -5977,7 +5974,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>113</v>
       </c>
@@ -5991,7 +5988,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>113</v>
       </c>
@@ -6005,7 +6002,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>113</v>
       </c>
@@ -6019,7 +6016,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>113</v>
       </c>
@@ -6033,7 +6030,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>113</v>
       </c>
@@ -6047,7 +6044,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>113</v>
       </c>
@@ -6061,7 +6058,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>113</v>
       </c>
@@ -6075,7 +6072,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>113</v>
       </c>
@@ -6089,7 +6086,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>113</v>
       </c>
@@ -6103,7 +6100,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>113</v>
       </c>
@@ -6117,7 +6114,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>113</v>
       </c>
@@ -6131,7 +6128,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>113</v>
       </c>
@@ -6145,7 +6142,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>113</v>
       </c>
@@ -6159,7 +6156,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>113</v>
       </c>
@@ -6173,7 +6170,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>113</v>
       </c>
@@ -6187,7 +6184,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>113</v>
       </c>
@@ -6201,7 +6198,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>113</v>
       </c>
@@ -6215,7 +6212,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>113</v>
       </c>
@@ -6229,7 +6226,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>113</v>
       </c>
@@ -6243,7 +6240,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>113</v>
       </c>
@@ -6257,7 +6254,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>113</v>
       </c>
@@ -6271,7 +6268,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>113</v>
       </c>
@@ -6285,7 +6282,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>113</v>
       </c>
@@ -6299,7 +6296,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>113</v>
       </c>
@@ -6313,7 +6310,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>113</v>
       </c>
@@ -6327,7 +6324,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>113</v>
       </c>
@@ -6341,7 +6338,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>113</v>
       </c>
@@ -6368,14 +6365,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -6386,7 +6383,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -6397,7 +6394,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80813608</v>
       </c>
@@ -6421,12 +6418,12 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -6443,7 +6440,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -6460,7 +6457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -6490,9 +6487,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6503,7 +6500,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -6514,7 +6511,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -6538,9 +6535,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6551,7 +6548,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -6562,7 +6559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80813608</v>
       </c>
@@ -6586,17 +6583,17 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6616,7 +6613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -6638,7 +6635,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80813644</v>
       </c>
@@ -6660,7 +6657,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>80813644</v>
       </c>
@@ -6682,7 +6679,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>80813644</v>
       </c>
@@ -6704,7 +6701,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>80813608</v>
       </c>
@@ -6726,7 +6723,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>80813608</v>
       </c>
@@ -6748,7 +6745,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>80813608</v>
       </c>
@@ -6770,7 +6767,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80813608</v>
       </c>
@@ -6802,12 +6799,12 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A7" sqref="A2:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6830,7 +6827,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -6853,7 +6850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80813644</v>
       </c>
@@ -6876,7 +6873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>80813644</v>
       </c>
@@ -6899,7 +6896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>80813608</v>
       </c>
@@ -6922,7 +6919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>80813608</v>
       </c>
@@ -6945,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>80813608</v>
       </c>
@@ -6975,18 +6972,18 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -7009,7 +7006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -7032,19 +7029,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
       <c r="E3">
         <v>0.2</v>
       </c>
@@ -7052,22 +7046,19 @@
         <v>0.2</v>
       </c>
       <c r="G3" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>109</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
       <c r="E4">
         <v>0.2</v>
       </c>
@@ -7075,11 +7066,100 @@
         <v>0.2</v>
       </c>
       <c r="G4" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>0.2</v>
+      </c>
+      <c r="F8">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <customProperties>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -7091,16 +7171,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -7117,7 +7197,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -7134,7 +7214,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -7151,7 +7231,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -7181,14 +7261,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="8.88671875" style="3"/>
-    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.85546875" style="3"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7208,7 +7288,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -7228,7 +7308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80813608</v>
       </c>
@@ -7261,16 +7341,16 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -7287,7 +7367,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>48</v>
       </c>
@@ -7304,7 +7384,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>48</v>
       </c>
@@ -7334,13 +7414,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -7360,7 +7440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -7390,17 +7470,17 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A32" sqref="A32:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -7417,7 +7497,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>45901</v>
       </c>
@@ -7434,7 +7514,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>45902</v>
       </c>
@@ -7451,7 +7531,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>45903</v>
       </c>
@@ -7468,7 +7548,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>45904</v>
       </c>
@@ -7485,7 +7565,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>45905</v>
       </c>
@@ -7502,7 +7582,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>45906</v>
       </c>
@@ -7519,7 +7599,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>45907</v>
       </c>
@@ -7536,7 +7616,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>45908</v>
       </c>
@@ -7553,7 +7633,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>45909</v>
       </c>
@@ -7570,7 +7650,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>45910</v>
       </c>
@@ -7587,7 +7667,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>45911</v>
       </c>
@@ -7604,7 +7684,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>45912</v>
       </c>
@@ -7621,7 +7701,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>45913</v>
       </c>
@@ -7638,7 +7718,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>45914</v>
       </c>
@@ -7655,7 +7735,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>45915</v>
       </c>
@@ -7672,7 +7752,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>45916</v>
       </c>
@@ -7689,7 +7769,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>45917</v>
       </c>
@@ -7706,7 +7786,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>45918</v>
       </c>
@@ -7723,7 +7803,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>45919</v>
       </c>
@@ -7740,7 +7820,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>45920</v>
       </c>
@@ -7757,7 +7837,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>45921</v>
       </c>
@@ -7774,7 +7854,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>45922</v>
       </c>
@@ -7791,7 +7871,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>45923</v>
       </c>
@@ -7808,7 +7888,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>45924</v>
       </c>
@@ -7825,7 +7905,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>45925</v>
       </c>
@@ -7842,7 +7922,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>45926</v>
       </c>
@@ -7859,7 +7939,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>45927</v>
       </c>
@@ -7876,7 +7956,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>45928</v>
       </c>
@@ -7893,7 +7973,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>45929</v>
       </c>
@@ -7910,7 +7990,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>45930</v>
       </c>
@@ -7927,7 +8007,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>45901</v>
       </c>
@@ -7944,7 +8024,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>45902</v>
       </c>
@@ -7961,7 +8041,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>45903</v>
       </c>
@@ -7978,7 +8058,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>45904</v>
       </c>
@@ -7995,7 +8075,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>45905</v>
       </c>
@@ -8012,7 +8092,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>45906</v>
       </c>
@@ -8029,7 +8109,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>45907</v>
       </c>
@@ -8046,7 +8126,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>45908</v>
       </c>
@@ -8063,7 +8143,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>45909</v>
       </c>
@@ -8080,7 +8160,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>45910</v>
       </c>
@@ -8097,7 +8177,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>45911</v>
       </c>
@@ -8114,7 +8194,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>45912</v>
       </c>
@@ -8131,7 +8211,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>45913</v>
       </c>
@@ -8148,7 +8228,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>45914</v>
       </c>
@@ -8165,7 +8245,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>45915</v>
       </c>
@@ -8182,7 +8262,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>45916</v>
       </c>
@@ -8199,7 +8279,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>45917</v>
       </c>
@@ -8216,7 +8296,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>45918</v>
       </c>
@@ -8233,7 +8313,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>45919</v>
       </c>
@@ -8250,7 +8330,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>45920</v>
       </c>
@@ -8267,7 +8347,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>45921</v>
       </c>
@@ -8284,7 +8364,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>45922</v>
       </c>
@@ -8301,7 +8381,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>45923</v>
       </c>
@@ -8318,7 +8398,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>45924</v>
       </c>
@@ -8335,7 +8415,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>45925</v>
       </c>
@@ -8352,7 +8432,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>45926</v>
       </c>
@@ -8369,7 +8449,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>45927</v>
       </c>
@@ -8386,7 +8466,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>45928</v>
       </c>
@@ -8403,7 +8483,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>45929</v>
       </c>
@@ -8420,7 +8500,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>45930</v>
       </c>
@@ -8437,7 +8517,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>45901</v>
       </c>
@@ -8454,7 +8534,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>45902</v>
       </c>
@@ -8471,7 +8551,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>45903</v>
       </c>
@@ -8488,7 +8568,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>45904</v>
       </c>
@@ -8505,7 +8585,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>45905</v>
       </c>
@@ -8522,7 +8602,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>45906</v>
       </c>
@@ -8539,7 +8619,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>45907</v>
       </c>
@@ -8556,7 +8636,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>45908</v>
       </c>
@@ -8573,7 +8653,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>45909</v>
       </c>
@@ -8590,7 +8670,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>45910</v>
       </c>
@@ -8607,7 +8687,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>45911</v>
       </c>
@@ -8624,7 +8704,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>45912</v>
       </c>
@@ -8641,7 +8721,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>45913</v>
       </c>
@@ -8658,7 +8738,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>45914</v>
       </c>
@@ -8675,7 +8755,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>45915</v>
       </c>
@@ -8692,7 +8772,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>45916</v>
       </c>
@@ -8709,7 +8789,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>45917</v>
       </c>
@@ -8726,7 +8806,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>45918</v>
       </c>
@@ -8743,7 +8823,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>45919</v>
       </c>
@@ -8760,7 +8840,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>45920</v>
       </c>
@@ -8777,7 +8857,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>45921</v>
       </c>
@@ -8794,7 +8874,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>45922</v>
       </c>
@@ -8811,7 +8891,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>45923</v>
       </c>
@@ -8828,7 +8908,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>45924</v>
       </c>
@@ -8845,7 +8925,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>45925</v>
       </c>
@@ -8862,7 +8942,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="11">
         <v>45926</v>
       </c>
@@ -8879,7 +8959,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="11">
         <v>45927</v>
       </c>
@@ -8896,7 +8976,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="11">
         <v>45928</v>
       </c>
@@ -8913,7 +8993,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>45929</v>
       </c>
@@ -8930,7 +9010,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <v>45930</v>
       </c>
@@ -8958,19 +9038,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>105</v>
       </c>
@@ -8978,7 +9058,7 @@
         <v>322270696</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>106</v>
       </c>
@@ -8986,7 +9066,7 @@
         <v>231216312</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -8994,7 +9074,7 @@
         <v>854534</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -9015,13 +9095,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9035,7 +9115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -9049,7 +9129,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>112</v>
       </c>
@@ -9063,7 +9143,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -9077,7 +9157,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -9091,7 +9171,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -9115,12 +9195,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -9140,7 +9220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -9160,7 +9240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>112</v>
       </c>
@@ -9180,7 +9260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -9200,7 +9280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -9233,12 +9313,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -9246,7 +9326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -9254,7 +9334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -9262,7 +9342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -9270,7 +9350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -9278,7 +9358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -9286,7 +9366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>237</v>
       </c>
@@ -9294,7 +9374,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>238</v>
       </c>
@@ -9302,7 +9382,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -9310,7 +9390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>240</v>
       </c>
@@ -9318,7 +9398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -9326,7 +9406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -9334,7 +9414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -9342,7 +9422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>241</v>
       </c>
@@ -9350,7 +9430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>242</v>
       </c>
@@ -9358,7 +9438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>243</v>
       </c>
@@ -9366,7 +9446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>244</v>
       </c>
@@ -9374,7 +9454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>245</v>
       </c>
@@ -9395,9 +9475,9 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9408,7 +9488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -9419,7 +9499,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80813644</v>
       </c>
@@ -9430,7 +9510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>80813644</v>
       </c>
@@ -9441,7 +9521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>80813644</v>
       </c>
@@ -9452,7 +9532,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>80813608</v>
       </c>
@@ -9463,7 +9543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>80813608</v>
       </c>
@@ -9474,7 +9554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>80813608</v>
       </c>
@@ -9485,7 +9565,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80813608</v>
       </c>
@@ -9509,9 +9589,9 @@
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -9525,7 +9605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9539,7 +9619,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9553,7 +9633,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9567,7 +9647,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9581,7 +9661,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9595,7 +9675,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9609,7 +9689,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9623,7 +9703,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9637,7 +9717,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9651,7 +9731,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9665,7 +9745,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9679,7 +9759,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9693,7 +9773,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9707,7 +9787,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -9721,7 +9801,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -9735,7 +9815,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -9749,7 +9829,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -9763,7 +9843,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -9777,7 +9857,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -9791,7 +9871,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -9805,7 +9885,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -9819,7 +9899,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
@@ -9833,7 +9913,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -9847,7 +9927,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -9861,7 +9941,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -9875,7 +9955,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13</v>
       </c>
@@ -9889,7 +9969,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -9903,7 +9983,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -9917,7 +9997,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -9931,7 +10011,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -9945,7 +10025,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -9959,7 +10039,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -9973,7 +10053,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -9987,7 +10067,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
@@ -10001,7 +10081,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -10015,7 +10095,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10</v>
       </c>
@@ -10029,7 +10109,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
@@ -10043,7 +10123,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12</v>
       </c>
@@ -10057,7 +10137,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
@@ -10071,7 +10151,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -10085,7 +10165,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -10099,7 +10179,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -10113,7 +10193,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
@@ -10127,7 +10207,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -10141,7 +10221,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6</v>
       </c>
@@ -10155,7 +10235,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7</v>
       </c>
@@ -10169,7 +10249,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8</v>
       </c>
@@ -10183,7 +10263,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>9</v>
       </c>
@@ -10197,7 +10277,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10</v>
       </c>
@@ -10211,7 +10291,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>11</v>
       </c>
@@ -10225,7 +10305,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>12</v>
       </c>
@@ -10239,7 +10319,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>13</v>
       </c>
@@ -10253,7 +10333,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -10267,7 +10347,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -10281,7 +10361,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -10295,7 +10375,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -10309,7 +10389,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
@@ -10323,7 +10403,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -10337,7 +10417,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
@@ -10351,7 +10431,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>8</v>
       </c>
@@ -10365,7 +10445,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9</v>
       </c>
@@ -10379,7 +10459,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10</v>
       </c>
@@ -10393,7 +10473,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11</v>
       </c>
@@ -10407,7 +10487,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>12</v>
       </c>
@@ -10421,7 +10501,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>13</v>
       </c>
@@ -10435,7 +10515,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -10449,7 +10529,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -10463,7 +10543,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -10477,7 +10557,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -10491,7 +10571,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5</v>
       </c>
@@ -10505,7 +10585,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6</v>
       </c>
@@ -10519,7 +10599,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7</v>
       </c>
@@ -10533,7 +10613,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>8</v>
       </c>
@@ -10547,7 +10627,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9</v>
       </c>
@@ -10561,7 +10641,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10</v>
       </c>
@@ -10575,7 +10655,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11</v>
       </c>
@@ -10589,7 +10669,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12</v>
       </c>
@@ -10603,7 +10683,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>13</v>
       </c>
@@ -10630,15 +10710,15 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10652,7 +10732,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -10666,7 +10746,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80813644</v>
       </c>
@@ -10680,7 +10760,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>80813644</v>
       </c>
@@ -10694,7 +10774,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>80813608</v>
       </c>
@@ -10708,7 +10788,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>80813608</v>
       </c>
@@ -10722,7 +10802,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>80813608</v>
       </c>
@@ -10736,7 +10816,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>80813644</v>
       </c>
@@ -10750,7 +10830,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>80813644</v>
       </c>
@@ -10764,7 +10844,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80813644</v>
       </c>
@@ -10778,7 +10858,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>80813608</v>
       </c>
@@ -10792,7 +10872,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>80813608</v>
       </c>
@@ -10806,7 +10886,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>80813608</v>
       </c>
@@ -10833,12 +10913,12 @@
       <selection activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
@@ -10846,7 +10926,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>114</v>
       </c>
@@ -10854,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>116</v>
       </c>
@@ -10862,7 +10942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>117</v>
       </c>
@@ -10870,7 +10950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>118</v>
       </c>
@@ -10878,7 +10958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>119</v>
       </c>
@@ -10886,7 +10966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>120</v>
       </c>
@@ -10894,7 +10974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>121</v>
       </c>
@@ -10902,7 +10982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>122</v>
       </c>
@@ -10910,7 +10990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>123</v>
       </c>
@@ -10918,7 +10998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>124</v>
       </c>
@@ -10926,7 +11006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>125</v>
       </c>
@@ -10934,7 +11014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>126</v>
       </c>
@@ -10942,7 +11022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>127</v>
       </c>
@@ -10950,7 +11030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>128</v>
       </c>
@@ -10958,7 +11038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>129</v>
       </c>
@@ -10966,7 +11046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>130</v>
       </c>
@@ -10974,7 +11054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>131</v>
       </c>
@@ -10982,7 +11062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>132</v>
       </c>
@@ -10990,7 +11070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>133</v>
       </c>
@@ -10998,7 +11078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>134</v>
       </c>
@@ -11006,7 +11086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>135</v>
       </c>
@@ -11014,7 +11094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>136</v>
       </c>
@@ -11022,7 +11102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>137</v>
       </c>
@@ -11030,7 +11110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>138</v>
       </c>
@@ -11038,7 +11118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>139</v>
       </c>
@@ -11046,7 +11126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>140</v>
       </c>
@@ -11054,7 +11134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>141</v>
       </c>
@@ -11062,7 +11142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>142</v>
       </c>
@@ -11070,7 +11150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>143</v>
       </c>
@@ -11078,7 +11158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>144</v>
       </c>
@@ -11086,7 +11166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>145</v>
       </c>
@@ -11094,7 +11174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>146</v>
       </c>
@@ -11102,7 +11182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>147</v>
       </c>
@@ -11110,7 +11190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>148</v>
       </c>
@@ -11118,7 +11198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>149</v>
       </c>
@@ -11126,7 +11206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>150</v>
       </c>
@@ -11134,7 +11214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>151</v>
       </c>
@@ -11142,7 +11222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>152</v>
       </c>
@@ -11150,7 +11230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>153</v>
       </c>
@@ -11158,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>154</v>
       </c>
@@ -11166,7 +11246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>155</v>
       </c>
@@ -11174,7 +11254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>156</v>
       </c>
@@ -11182,7 +11262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>157</v>
       </c>
@@ -11190,7 +11270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>158</v>
       </c>
@@ -11198,7 +11278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>159</v>
       </c>
@@ -11206,7 +11286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>160</v>
       </c>
@@ -11214,7 +11294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>161</v>
       </c>
@@ -11222,7 +11302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>162</v>
       </c>
@@ -11230,7 +11310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>163</v>
       </c>
@@ -11238,7 +11318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>164</v>
       </c>
@@ -11246,7 +11326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>165</v>
       </c>
@@ -11254,7 +11334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>166</v>
       </c>
@@ -11262,7 +11342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>167</v>
       </c>
@@ -11270,7 +11350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>168</v>
       </c>
@@ -11278,7 +11358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>169</v>
       </c>
@@ -11286,7 +11366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>170</v>
       </c>
@@ -11294,7 +11374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>171</v>
       </c>
@@ -11302,7 +11382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>172</v>
       </c>
@@ -11310,7 +11390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>173</v>
       </c>
@@ -11318,7 +11398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>174</v>
       </c>
@@ -11326,7 +11406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>175</v>
       </c>
@@ -11334,7 +11414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>176</v>
       </c>
@@ -11342,7 +11422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>177</v>
       </c>
@@ -11350,7 +11430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>178</v>
       </c>
@@ -11358,7 +11438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>179</v>
       </c>
@@ -11366,7 +11446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>180</v>
       </c>
@@ -11374,7 +11454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>181</v>
       </c>
@@ -11382,7 +11462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>182</v>
       </c>
@@ -11390,7 +11470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>183</v>
       </c>
@@ -11398,7 +11478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>184</v>
       </c>
@@ -11406,7 +11486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>185</v>
       </c>
@@ -11414,7 +11494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>186</v>
       </c>
@@ -11422,7 +11502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>187</v>
       </c>
@@ -11430,7 +11510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>188</v>
       </c>
@@ -11438,7 +11518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>189</v>
       </c>
@@ -11446,7 +11526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>190</v>
       </c>
@@ -11454,7 +11534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>191</v>
       </c>
@@ -11462,7 +11542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>192</v>
       </c>
@@ -11470,7 +11550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>193</v>
       </c>
@@ -11478,7 +11558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>194</v>
       </c>
@@ -11486,7 +11566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>195</v>
       </c>
@@ -11494,7 +11574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>196</v>
       </c>
@@ -11502,7 +11582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>197</v>
       </c>
@@ -11510,7 +11590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>198</v>
       </c>
@@ -11518,7 +11598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>199</v>
       </c>
@@ -11526,7 +11606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>200</v>
       </c>
@@ -11534,7 +11614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>201</v>
       </c>
@@ -11542,7 +11622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>202</v>
       </c>
@@ -11550,7 +11630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>203</v>
       </c>
@@ -11558,7 +11638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>204</v>
       </c>
@@ -11566,7 +11646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>205</v>
       </c>
@@ -11574,7 +11654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>206</v>
       </c>
@@ -11582,7 +11662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>207</v>
       </c>
@@ -11590,7 +11670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>208</v>
       </c>
@@ -11598,7 +11678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>209</v>
       </c>
@@ -11606,7 +11686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>210</v>
       </c>
@@ -11614,7 +11694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>211</v>
       </c>
@@ -11622,7 +11702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>212</v>
       </c>
@@ -11630,7 +11710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>213</v>
       </c>
@@ -11638,7 +11718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>214</v>
       </c>
@@ -11646,7 +11726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>215</v>
       </c>
@@ -11654,7 +11734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>216</v>
       </c>
@@ -11662,7 +11742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>217</v>
       </c>
@@ -11670,7 +11750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>218</v>
       </c>
@@ -11678,7 +11758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>219</v>
       </c>
@@ -11686,7 +11766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>220</v>
       </c>
@@ -11694,7 +11774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>221</v>
       </c>
@@ -11702,7 +11782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>222</v>
       </c>
@@ -11710,7 +11790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>223</v>
       </c>
@@ -11718,7 +11798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>224</v>
       </c>
@@ -11726,7 +11806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>225</v>
       </c>
@@ -11734,7 +11814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>226</v>
       </c>
@@ -11742,7 +11822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>227</v>
       </c>
@@ -11750,7 +11830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>228</v>
       </c>
@@ -11758,7 +11838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>229</v>
       </c>
@@ -11766,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>230</v>
       </c>
@@ -11774,7 +11854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>231</v>
       </c>
@@ -11782,7 +11862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>232</v>
       </c>
@@ -11790,7 +11870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>233</v>
       </c>
@@ -11798,7 +11878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>234</v>
       </c>
@@ -11806,7 +11886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>235</v>
       </c>
@@ -11814,7 +11894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>115</v>
       </c>

--- a/ChainSight 1st SIT.xlsx
+++ b/ChainSight 1st SIT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang.s.37\OneDrive - Procter and Gamble\Documents\GitHub\chainsight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pgone-my.sharepoint.com/personal/zhang_s_37_pg_com/Documents/Documents/GitHub/chainsight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5962DA8C-7EC6-4E67-90FE-88C71EB017E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{5962DA8C-7EC6-4E67-90FE-88C71EB017E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D076564D-0C81-48B4-9F06-BF158D9911A5}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="3330" windowWidth="20985" windowHeight="11235" tabRatio="761" firstSheet="20" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1356" yWindow="1308" windowWidth="12648" windowHeight="10632" tabRatio="761" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="26" r:id="rId1"/>
@@ -1220,19 +1220,19 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>84</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>83</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>89</v>
       </c>
@@ -1304,12 +1304,12 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>103</v>
       </c>
@@ -1327,13 +1327,13 @@
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>80813644</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>80813644</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80813608</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>80813608</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>80813608</v>
       </c>
@@ -1444,15 +1444,15 @@
       <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>80813644</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>80813608</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80813608</v>
       </c>
@@ -1536,12 +1536,12 @@
       <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>80813644</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>80813644</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80813644</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>80813644</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>80813644</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>80813644</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>80813644</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>80813644</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>80813644</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>80813644</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>80813644</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>80813644</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>80813644</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>80813644</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>80813644</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>80813644</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>80813644</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>80813644</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>80813644</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>80813644</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>80813644</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>80813644</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>80813644</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>80813644</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>80813644</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>80813644</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>80813644</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>80813644</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>80813644</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>80813644</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>80813644</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>80813644</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>80813644</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>80813644</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>80813644</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>80813644</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>80813644</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>80813644</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>80813608</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>80813608</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>80813608</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>80813608</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>80813608</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>80813608</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>80813608</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>80813608</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>80813608</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>80813608</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>80813608</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>80813608</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>80813608</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>80813608</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>80813608</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>80813608</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>80813608</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>80813608</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>80813608</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>80813608</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>80813608</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>80813608</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>80813608</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>80813608</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>80813608</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>80813608</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>80813608</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>80813608</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>80813608</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>80813608</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>80813608</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>80813608</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>80813608</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>80813608</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>80813608</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>80813608</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>80813608</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>80813608</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>80813608</v>
       </c>
@@ -2663,18 +2663,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" style="8"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="8"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>80813644</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>80813644</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80813608</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>80813608</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>80813608</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>80813608</v>
       </c>
@@ -2795,20 +2795,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2840,7 +2838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -2872,7 +2870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>80813608</v>
       </c>
@@ -2917,12 +2915,12 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2936,7 +2934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -2950,7 +2948,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>112</v>
       </c>
@@ -2964,7 +2962,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>112</v>
       </c>
@@ -2978,7 +2976,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>112</v>
       </c>
@@ -2992,7 +2990,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>112</v>
       </c>
@@ -3006,7 +3004,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>112</v>
       </c>
@@ -3020,7 +3018,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>112</v>
       </c>
@@ -3034,7 +3032,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
@@ -3048,7 +3046,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>112</v>
       </c>
@@ -3062,7 +3060,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>112</v>
       </c>
@@ -3076,7 +3074,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>112</v>
       </c>
@@ -3090,7 +3088,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>112</v>
       </c>
@@ -3104,7 +3102,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>112</v>
       </c>
@@ -3118,7 +3116,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>112</v>
       </c>
@@ -3132,7 +3130,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>112</v>
       </c>
@@ -3146,7 +3144,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>112</v>
       </c>
@@ -3160,7 +3158,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>112</v>
       </c>
@@ -3174,7 +3172,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>112</v>
       </c>
@@ -3188,7 +3186,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>112</v>
       </c>
@@ -3202,7 +3200,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>112</v>
       </c>
@@ -3216,7 +3214,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>112</v>
       </c>
@@ -3230,7 +3228,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>112</v>
       </c>
@@ -3244,7 +3242,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>112</v>
       </c>
@@ -3258,7 +3256,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>112</v>
       </c>
@@ -3272,7 +3270,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>112</v>
       </c>
@@ -3286,7 +3284,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>112</v>
       </c>
@@ -3300,7 +3298,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>112</v>
       </c>
@@ -3314,7 +3312,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>112</v>
       </c>
@@ -3328,7 +3326,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>112</v>
       </c>
@@ -3342,7 +3340,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>112</v>
       </c>
@@ -3356,7 +3354,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>112</v>
       </c>
@@ -3370,7 +3368,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>112</v>
       </c>
@@ -3384,7 +3382,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>112</v>
       </c>
@@ -3398,7 +3396,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>112</v>
       </c>
@@ -3412,7 +3410,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>112</v>
       </c>
@@ -3426,7 +3424,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>112</v>
       </c>
@@ -3440,7 +3438,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>112</v>
       </c>
@@ -3454,7 +3452,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>112</v>
       </c>
@@ -3468,7 +3466,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>112</v>
       </c>
@@ -3482,7 +3480,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>112</v>
       </c>
@@ -3496,7 +3494,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>112</v>
       </c>
@@ -3510,7 +3508,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>112</v>
       </c>
@@ -3524,7 +3522,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>112</v>
       </c>
@@ -3538,7 +3536,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>112</v>
       </c>
@@ -3552,7 +3550,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>112</v>
       </c>
@@ -3566,7 +3564,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>112</v>
       </c>
@@ -3580,7 +3578,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>112</v>
       </c>
@@ -3594,7 +3592,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>112</v>
       </c>
@@ -3608,7 +3606,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>112</v>
       </c>
@@ -3622,7 +3620,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>112</v>
       </c>
@@ -3636,7 +3634,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>112</v>
       </c>
@@ -3650,7 +3648,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>112</v>
       </c>
@@ -3664,7 +3662,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>112</v>
       </c>
@@ -3678,7 +3676,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>112</v>
       </c>
@@ -3692,7 +3690,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>112</v>
       </c>
@@ -3706,7 +3704,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>112</v>
       </c>
@@ -3720,7 +3718,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>112</v>
       </c>
@@ -3734,7 +3732,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>112</v>
       </c>
@@ -3748,7 +3746,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>112</v>
       </c>
@@ -3762,7 +3760,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>112</v>
       </c>
@@ -3776,7 +3774,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>112</v>
       </c>
@@ -3790,7 +3788,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>112</v>
       </c>
@@ -3804,7 +3802,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>112</v>
       </c>
@@ -3818,7 +3816,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>112</v>
       </c>
@@ -3832,7 +3830,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>112</v>
       </c>
@@ -3846,7 +3844,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>112</v>
       </c>
@@ -3860,7 +3858,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>112</v>
       </c>
@@ -3874,7 +3872,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>112</v>
       </c>
@@ -3888,7 +3886,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>112</v>
       </c>
@@ -3902,7 +3900,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>112</v>
       </c>
@@ -3916,7 +3914,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>112</v>
       </c>
@@ -3930,7 +3928,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>112</v>
       </c>
@@ -3944,7 +3942,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>112</v>
       </c>
@@ -3958,7 +3956,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>112</v>
       </c>
@@ -3972,7 +3970,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>112</v>
       </c>
@@ -3986,7 +3984,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>112</v>
       </c>
@@ -4000,7 +3998,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>112</v>
       </c>
@@ -4014,7 +4012,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>112</v>
       </c>
@@ -4028,7 +4026,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>112</v>
       </c>
@@ -4042,7 +4040,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>112</v>
       </c>
@@ -4056,7 +4054,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>112</v>
       </c>
@@ -4070,7 +4068,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>112</v>
       </c>
@@ -4084,7 +4082,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>112</v>
       </c>
@@ -4098,7 +4096,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>112</v>
       </c>
@@ -4112,7 +4110,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>112</v>
       </c>
@@ -4126,7 +4124,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>112</v>
       </c>
@@ -4140,7 +4138,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>112</v>
       </c>
@@ -4154,7 +4152,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>112</v>
       </c>
@@ -4168,7 +4166,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>112</v>
       </c>
@@ -4182,7 +4180,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>112</v>
       </c>
@@ -4196,7 +4194,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>112</v>
       </c>
@@ -4210,7 +4208,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>112</v>
       </c>
@@ -4224,7 +4222,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>112</v>
       </c>
@@ -4238,7 +4236,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>112</v>
       </c>
@@ -4252,7 +4250,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>112</v>
       </c>
@@ -4266,7 +4264,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>112</v>
       </c>
@@ -4280,7 +4278,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>112</v>
       </c>
@@ -4294,7 +4292,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>112</v>
       </c>
@@ -4308,7 +4306,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>112</v>
       </c>
@@ -4322,7 +4320,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>112</v>
       </c>
@@ -4336,7 +4334,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>112</v>
       </c>
@@ -4350,7 +4348,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>112</v>
       </c>
@@ -4364,7 +4362,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>112</v>
       </c>
@@ -4378,7 +4376,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>112</v>
       </c>
@@ -4392,7 +4390,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>112</v>
       </c>
@@ -4406,7 +4404,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>112</v>
       </c>
@@ -4420,7 +4418,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>112</v>
       </c>
@@ -4434,7 +4432,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>112</v>
       </c>
@@ -4448,7 +4446,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>112</v>
       </c>
@@ -4462,7 +4460,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>112</v>
       </c>
@@ -4476,7 +4474,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>112</v>
       </c>
@@ -4490,7 +4488,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>112</v>
       </c>
@@ -4504,7 +4502,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>112</v>
       </c>
@@ -4518,7 +4516,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>112</v>
       </c>
@@ -4532,7 +4530,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>112</v>
       </c>
@@ -4546,7 +4544,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>112</v>
       </c>
@@ -4560,7 +4558,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>112</v>
       </c>
@@ -4574,7 +4572,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>112</v>
       </c>
@@ -4588,7 +4586,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>112</v>
       </c>
@@ -4602,7 +4600,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>112</v>
       </c>
@@ -4616,7 +4614,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>112</v>
       </c>
@@ -4630,7 +4628,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>112</v>
       </c>
@@ -4644,7 +4642,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>113</v>
       </c>
@@ -4658,7 +4656,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>113</v>
       </c>
@@ -4672,7 +4670,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>113</v>
       </c>
@@ -4686,7 +4684,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>113</v>
       </c>
@@ -4700,7 +4698,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>113</v>
       </c>
@@ -4714,7 +4712,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>113</v>
       </c>
@@ -4728,7 +4726,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>113</v>
       </c>
@@ -4742,7 +4740,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>113</v>
       </c>
@@ -4756,7 +4754,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>113</v>
       </c>
@@ -4770,7 +4768,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>113</v>
       </c>
@@ -4784,7 +4782,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>113</v>
       </c>
@@ -4798,7 +4796,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>113</v>
       </c>
@@ -4812,7 +4810,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>113</v>
       </c>
@@ -4826,7 +4824,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>113</v>
       </c>
@@ -4840,7 +4838,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>113</v>
       </c>
@@ -4854,7 +4852,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>113</v>
       </c>
@@ -4868,7 +4866,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>113</v>
       </c>
@@ -4882,7 +4880,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>113</v>
       </c>
@@ -4896,7 +4894,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>113</v>
       </c>
@@ -4910,7 +4908,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>113</v>
       </c>
@@ -4924,7 +4922,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>113</v>
       </c>
@@ -4938,7 +4936,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>113</v>
       </c>
@@ -4952,7 +4950,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>113</v>
       </c>
@@ -4966,7 +4964,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>113</v>
       </c>
@@ -4980,7 +4978,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>113</v>
       </c>
@@ -4994,7 +4992,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>113</v>
       </c>
@@ -5008,7 +5006,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>113</v>
       </c>
@@ -5022,7 +5020,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>113</v>
       </c>
@@ -5036,7 +5034,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>113</v>
       </c>
@@ -5050,7 +5048,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>113</v>
       </c>
@@ -5064,7 +5062,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>113</v>
       </c>
@@ -5078,7 +5076,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>113</v>
       </c>
@@ -5092,7 +5090,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>113</v>
       </c>
@@ -5106,7 +5104,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>113</v>
       </c>
@@ -5120,7 +5118,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>113</v>
       </c>
@@ -5134,7 +5132,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>113</v>
       </c>
@@ -5148,7 +5146,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>113</v>
       </c>
@@ -5162,7 +5160,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>113</v>
       </c>
@@ -5176,7 +5174,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>113</v>
       </c>
@@ -5190,7 +5188,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>113</v>
       </c>
@@ -5204,7 +5202,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>113</v>
       </c>
@@ -5218,7 +5216,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>113</v>
       </c>
@@ -5232,7 +5230,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>113</v>
       </c>
@@ -5246,7 +5244,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>113</v>
       </c>
@@ -5260,7 +5258,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>113</v>
       </c>
@@ -5274,7 +5272,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>113</v>
       </c>
@@ -5288,7 +5286,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>113</v>
       </c>
@@ -5302,7 +5300,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>113</v>
       </c>
@@ -5316,7 +5314,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>113</v>
       </c>
@@ -5330,7 +5328,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>113</v>
       </c>
@@ -5344,7 +5342,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>113</v>
       </c>
@@ -5358,7 +5356,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>113</v>
       </c>
@@ -5372,7 +5370,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>113</v>
       </c>
@@ -5386,7 +5384,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>113</v>
       </c>
@@ -5400,7 +5398,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>113</v>
       </c>
@@ -5414,7 +5412,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>113</v>
       </c>
@@ -5428,7 +5426,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>113</v>
       </c>
@@ -5442,7 +5440,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>113</v>
       </c>
@@ -5456,7 +5454,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>113</v>
       </c>
@@ -5470,7 +5468,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>113</v>
       </c>
@@ -5484,7 +5482,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>113</v>
       </c>
@@ -5498,7 +5496,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>113</v>
       </c>
@@ -5512,7 +5510,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>113</v>
       </c>
@@ -5526,7 +5524,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>113</v>
       </c>
@@ -5540,7 +5538,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>113</v>
       </c>
@@ -5554,7 +5552,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>113</v>
       </c>
@@ -5568,7 +5566,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>113</v>
       </c>
@@ -5582,7 +5580,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>113</v>
       </c>
@@ -5596,7 +5594,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>113</v>
       </c>
@@ -5610,7 +5608,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>113</v>
       </c>
@@ -5624,7 +5622,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>113</v>
       </c>
@@ -5638,7 +5636,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>113</v>
       </c>
@@ -5652,7 +5650,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>113</v>
       </c>
@@ -5666,7 +5664,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>113</v>
       </c>
@@ -5680,7 +5678,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>113</v>
       </c>
@@ -5694,7 +5692,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>113</v>
       </c>
@@ -5708,7 +5706,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>113</v>
       </c>
@@ -5722,7 +5720,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>113</v>
       </c>
@@ -5736,7 +5734,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>113</v>
       </c>
@@ -5750,7 +5748,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>113</v>
       </c>
@@ -5764,7 +5762,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>113</v>
       </c>
@@ -5778,7 +5776,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>113</v>
       </c>
@@ -5792,7 +5790,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>113</v>
       </c>
@@ -5806,7 +5804,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>113</v>
       </c>
@@ -5820,7 +5818,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>113</v>
       </c>
@@ -5834,7 +5832,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>113</v>
       </c>
@@ -5848,7 +5846,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>113</v>
       </c>
@@ -5862,7 +5860,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>113</v>
       </c>
@@ -5876,7 +5874,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>113</v>
       </c>
@@ -5890,7 +5888,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>113</v>
       </c>
@@ -5904,7 +5902,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>113</v>
       </c>
@@ -5918,7 +5916,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>113</v>
       </c>
@@ -5932,7 +5930,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>113</v>
       </c>
@@ -5946,7 +5944,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>113</v>
       </c>
@@ -5960,7 +5958,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>113</v>
       </c>
@@ -5974,7 +5972,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>113</v>
       </c>
@@ -5988,7 +5986,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>113</v>
       </c>
@@ -6002,7 +6000,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>113</v>
       </c>
@@ -6016,7 +6014,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>113</v>
       </c>
@@ -6030,7 +6028,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>113</v>
       </c>
@@ -6044,7 +6042,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>113</v>
       </c>
@@ -6058,7 +6056,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>113</v>
       </c>
@@ -6072,7 +6070,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>113</v>
       </c>
@@ -6086,7 +6084,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>113</v>
       </c>
@@ -6100,7 +6098,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>113</v>
       </c>
@@ -6114,7 +6112,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>113</v>
       </c>
@@ -6128,7 +6126,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>113</v>
       </c>
@@ -6142,7 +6140,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>113</v>
       </c>
@@ -6156,7 +6154,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>113</v>
       </c>
@@ -6170,7 +6168,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>113</v>
       </c>
@@ -6184,7 +6182,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>113</v>
       </c>
@@ -6198,7 +6196,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>113</v>
       </c>
@@ -6212,7 +6210,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>113</v>
       </c>
@@ -6226,7 +6224,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>113</v>
       </c>
@@ -6240,7 +6238,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>113</v>
       </c>
@@ -6254,7 +6252,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>113</v>
       </c>
@@ -6268,7 +6266,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>113</v>
       </c>
@@ -6282,7 +6280,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>113</v>
       </c>
@@ -6296,7 +6294,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>113</v>
       </c>
@@ -6310,7 +6308,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>113</v>
       </c>
@@ -6324,7 +6322,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>113</v>
       </c>
@@ -6338,7 +6336,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>113</v>
       </c>
@@ -6365,14 +6363,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -6383,7 +6381,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -6394,7 +6392,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>80813608</v>
       </c>
@@ -6418,12 +6416,12 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -6440,7 +6438,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -6457,7 +6455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -6487,9 +6485,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6500,7 +6498,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -6511,7 +6509,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -6535,9 +6533,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6548,7 +6546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -6559,7 +6557,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>80813608</v>
       </c>
@@ -6583,17 +6581,17 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6613,7 +6611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -6635,7 +6633,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>80813644</v>
       </c>
@@ -6657,7 +6655,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>80813644</v>
       </c>
@@ -6679,7 +6677,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80813644</v>
       </c>
@@ -6701,7 +6699,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>80813608</v>
       </c>
@@ -6723,7 +6721,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>80813608</v>
       </c>
@@ -6745,7 +6743,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>80813608</v>
       </c>
@@ -6767,7 +6765,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>80813608</v>
       </c>
@@ -6799,12 +6797,12 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:G7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6827,7 +6825,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -6850,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>80813644</v>
       </c>
@@ -6873,7 +6871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>80813644</v>
       </c>
@@ -6896,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80813608</v>
       </c>
@@ -6919,7 +6917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>80813608</v>
       </c>
@@ -6942,7 +6940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>80813608</v>
       </c>
@@ -6974,16 +6972,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="8.85546875" style="3"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -7006,7 +7004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -7029,7 +7027,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>112</v>
       </c>
@@ -7049,7 +7047,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>112</v>
       </c>
@@ -7069,7 +7067,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>112</v>
       </c>
@@ -7092,7 +7090,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>112</v>
       </c>
@@ -7112,7 +7110,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>112</v>
       </c>
@@ -7132,7 +7130,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -7157,9 +7155,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
-  </customProperties>
 </worksheet>
 </file>
 
@@ -7168,19 +7163,19 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -7197,7 +7192,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -7214,7 +7209,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -7231,7 +7226,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -7258,17 +7253,17 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="8.85546875" style="3"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7288,7 +7283,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -7308,7 +7303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>80813608</v>
       </c>
@@ -7338,19 +7333,19 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -7367,7 +7362,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>48</v>
       </c>
@@ -7384,7 +7379,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>48</v>
       </c>
@@ -7414,13 +7409,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -7440,7 +7435,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -7473,14 +7468,14 @@
       <selection activeCell="A32" sqref="A32:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -7497,7 +7492,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>45901</v>
       </c>
@@ -7514,7 +7509,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>45902</v>
       </c>
@@ -7531,7 +7526,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>45903</v>
       </c>
@@ -7548,7 +7543,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>45904</v>
       </c>
@@ -7565,7 +7560,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>45905</v>
       </c>
@@ -7582,7 +7577,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>45906</v>
       </c>
@@ -7599,7 +7594,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>45907</v>
       </c>
@@ -7616,7 +7611,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>45908</v>
       </c>
@@ -7633,7 +7628,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>45909</v>
       </c>
@@ -7650,7 +7645,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>45910</v>
       </c>
@@ -7667,7 +7662,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>45911</v>
       </c>
@@ -7684,7 +7679,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>45912</v>
       </c>
@@ -7701,7 +7696,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>45913</v>
       </c>
@@ -7718,7 +7713,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>45914</v>
       </c>
@@ -7735,7 +7730,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>45915</v>
       </c>
@@ -7752,7 +7747,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>45916</v>
       </c>
@@ -7769,7 +7764,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>45917</v>
       </c>
@@ -7786,7 +7781,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>45918</v>
       </c>
@@ -7803,7 +7798,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>45919</v>
       </c>
@@ -7820,7 +7815,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>45920</v>
       </c>
@@ -7837,7 +7832,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>45921</v>
       </c>
@@ -7854,7 +7849,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>45922</v>
       </c>
@@ -7871,7 +7866,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>45923</v>
       </c>
@@ -7888,7 +7883,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>45924</v>
       </c>
@@ -7905,7 +7900,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>45925</v>
       </c>
@@ -7922,7 +7917,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>45926</v>
       </c>
@@ -7939,7 +7934,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>45927</v>
       </c>
@@ -7956,7 +7951,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>45928</v>
       </c>
@@ -7973,7 +7968,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>45929</v>
       </c>
@@ -7990,7 +7985,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>45930</v>
       </c>
@@ -8007,7 +8002,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>45901</v>
       </c>
@@ -8024,7 +8019,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>45902</v>
       </c>
@@ -8041,7 +8036,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>45903</v>
       </c>
@@ -8058,7 +8053,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>45904</v>
       </c>
@@ -8075,7 +8070,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>45905</v>
       </c>
@@ -8092,7 +8087,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>45906</v>
       </c>
@@ -8109,7 +8104,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>45907</v>
       </c>
@@ -8126,7 +8121,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>45908</v>
       </c>
@@ -8143,7 +8138,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>45909</v>
       </c>
@@ -8160,7 +8155,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>45910</v>
       </c>
@@ -8177,7 +8172,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>45911</v>
       </c>
@@ -8194,7 +8189,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>45912</v>
       </c>
@@ -8211,7 +8206,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>45913</v>
       </c>
@@ -8228,7 +8223,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>45914</v>
       </c>
@@ -8245,7 +8240,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>45915</v>
       </c>
@@ -8262,7 +8257,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>45916</v>
       </c>
@@ -8279,7 +8274,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>45917</v>
       </c>
@@ -8296,7 +8291,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>45918</v>
       </c>
@@ -8313,7 +8308,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>45919</v>
       </c>
@@ -8330,7 +8325,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>45920</v>
       </c>
@@ -8347,7 +8342,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>45921</v>
       </c>
@@ -8364,7 +8359,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>45922</v>
       </c>
@@ -8381,7 +8376,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>45923</v>
       </c>
@@ -8398,7 +8393,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>45924</v>
       </c>
@@ -8415,7 +8410,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>45925</v>
       </c>
@@ -8432,7 +8427,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>45926</v>
       </c>
@@ -8449,7 +8444,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>45927</v>
       </c>
@@ -8466,7 +8461,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>45928</v>
       </c>
@@ -8483,7 +8478,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>45929</v>
       </c>
@@ -8500,7 +8495,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>45930</v>
       </c>
@@ -8517,7 +8512,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>45901</v>
       </c>
@@ -8534,7 +8529,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>45902</v>
       </c>
@@ -8551,7 +8546,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>45903</v>
       </c>
@@ -8568,7 +8563,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>45904</v>
       </c>
@@ -8585,7 +8580,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>45905</v>
       </c>
@@ -8602,7 +8597,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <v>45906</v>
       </c>
@@ -8619,7 +8614,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>45907</v>
       </c>
@@ -8636,7 +8631,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
         <v>45908</v>
       </c>
@@ -8653,7 +8648,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>45909</v>
       </c>
@@ -8670,7 +8665,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>45910</v>
       </c>
@@ -8687,7 +8682,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <v>45911</v>
       </c>
@@ -8704,7 +8699,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>45912</v>
       </c>
@@ -8721,7 +8716,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>45913</v>
       </c>
@@ -8738,7 +8733,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>45914</v>
       </c>
@@ -8755,7 +8750,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>45915</v>
       </c>
@@ -8772,7 +8767,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>45916</v>
       </c>
@@ -8789,7 +8784,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>45917</v>
       </c>
@@ -8806,7 +8801,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>45918</v>
       </c>
@@ -8823,7 +8818,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>45919</v>
       </c>
@@ -8840,7 +8835,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="11">
         <v>45920</v>
       </c>
@@ -8857,7 +8852,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>45921</v>
       </c>
@@ -8874,7 +8869,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>45922</v>
       </c>
@@ -8891,7 +8886,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>45923</v>
       </c>
@@ -8908,7 +8903,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="11">
         <v>45924</v>
       </c>
@@ -8925,7 +8920,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <v>45925</v>
       </c>
@@ -8942,7 +8937,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="11">
         <v>45926</v>
       </c>
@@ -8959,7 +8954,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
         <v>45927</v>
       </c>
@@ -8976,7 +8971,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="11">
         <v>45928</v>
       </c>
@@ -8993,7 +8988,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <v>45929</v>
       </c>
@@ -9010,7 +9005,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
         <v>45930</v>
       </c>
@@ -9038,19 +9033,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>105</v>
       </c>
@@ -9058,7 +9053,7 @@
         <v>322270696</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>106</v>
       </c>
@@ -9066,7 +9061,7 @@
         <v>231216312</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -9074,7 +9069,7 @@
         <v>854534</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -9095,13 +9090,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9115,7 +9110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -9129,7 +9124,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>112</v>
       </c>
@@ -9143,7 +9138,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -9157,7 +9152,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -9171,7 +9166,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -9195,12 +9190,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -9220,7 +9215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>112</v>
       </c>
@@ -9240,7 +9235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>112</v>
       </c>
@@ -9260,7 +9255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -9280,7 +9275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -9313,12 +9308,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -9326,7 +9321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -9334,7 +9329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -9342,7 +9337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -9350,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -9358,7 +9353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -9366,7 +9361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>237</v>
       </c>
@@ -9374,7 +9369,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>238</v>
       </c>
@@ -9382,7 +9377,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -9390,7 +9385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>240</v>
       </c>
@@ -9398,7 +9393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -9406,7 +9401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -9414,7 +9409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -9422,7 +9417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>241</v>
       </c>
@@ -9430,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>242</v>
       </c>
@@ -9438,7 +9433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>243</v>
       </c>
@@ -9446,7 +9441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>244</v>
       </c>
@@ -9454,7 +9449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>245</v>
       </c>
@@ -9475,9 +9470,9 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9488,7 +9483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -9499,7 +9494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>80813644</v>
       </c>
@@ -9510,7 +9505,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>80813644</v>
       </c>
@@ -9521,7 +9516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80813644</v>
       </c>
@@ -9532,7 +9527,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>80813608</v>
       </c>
@@ -9543,7 +9538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>80813608</v>
       </c>
@@ -9554,7 +9549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>80813608</v>
       </c>
@@ -9565,7 +9560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>80813608</v>
       </c>
@@ -9589,9 +9584,9 @@
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -9605,7 +9600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9619,7 +9614,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9633,7 +9628,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9647,7 +9642,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9661,7 +9656,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9675,7 +9670,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9689,7 +9684,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9703,7 +9698,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9717,7 +9712,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9731,7 +9726,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9745,7 +9740,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9759,7 +9754,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9773,7 +9768,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9787,7 +9782,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -9801,7 +9796,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -9815,7 +9810,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -9829,7 +9824,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -9843,7 +9838,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -9857,7 +9852,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6</v>
       </c>
@@ -9871,7 +9866,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7</v>
       </c>
@@ -9885,7 +9880,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>8</v>
       </c>
@@ -9899,7 +9894,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>9</v>
       </c>
@@ -9913,7 +9908,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10</v>
       </c>
@@ -9927,7 +9922,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>11</v>
       </c>
@@ -9941,7 +9936,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>12</v>
       </c>
@@ -9955,7 +9950,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>13</v>
       </c>
@@ -9969,7 +9964,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -9983,7 +9978,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -9997,7 +9992,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -10011,7 +10006,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -10025,7 +10020,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -10039,7 +10034,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -10053,7 +10048,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -10067,7 +10062,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8</v>
       </c>
@@ -10081,7 +10076,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>9</v>
       </c>
@@ -10095,7 +10090,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10</v>
       </c>
@@ -10109,7 +10104,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>11</v>
       </c>
@@ -10123,7 +10118,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>12</v>
       </c>
@@ -10137,7 +10132,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>13</v>
       </c>
@@ -10151,7 +10146,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -10165,7 +10160,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -10179,7 +10174,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -10193,7 +10188,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4</v>
       </c>
@@ -10207,7 +10202,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -10221,7 +10216,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>6</v>
       </c>
@@ -10235,7 +10230,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>7</v>
       </c>
@@ -10249,7 +10244,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>8</v>
       </c>
@@ -10263,7 +10258,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>9</v>
       </c>
@@ -10277,7 +10272,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>10</v>
       </c>
@@ -10291,7 +10286,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>11</v>
       </c>
@@ -10305,7 +10300,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>12</v>
       </c>
@@ -10319,7 +10314,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>13</v>
       </c>
@@ -10333,7 +10328,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -10347,7 +10342,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
@@ -10361,7 +10356,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -10375,7 +10370,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
@@ -10389,7 +10384,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5</v>
       </c>
@@ -10403,7 +10398,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>6</v>
       </c>
@@ -10417,7 +10412,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>7</v>
       </c>
@@ -10431,7 +10426,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>8</v>
       </c>
@@ -10445,7 +10440,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>9</v>
       </c>
@@ -10459,7 +10454,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>10</v>
       </c>
@@ -10473,7 +10468,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>11</v>
       </c>
@@ -10487,7 +10482,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>12</v>
       </c>
@@ -10501,7 +10496,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>13</v>
       </c>
@@ -10515,7 +10510,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -10529,7 +10524,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2</v>
       </c>
@@ -10543,7 +10538,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3</v>
       </c>
@@ -10557,7 +10552,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>4</v>
       </c>
@@ -10571,7 +10566,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>5</v>
       </c>
@@ -10585,7 +10580,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>6</v>
       </c>
@@ -10599,7 +10594,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>7</v>
       </c>
@@ -10613,7 +10608,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>8</v>
       </c>
@@ -10627,7 +10622,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>9</v>
       </c>
@@ -10641,7 +10636,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>10</v>
       </c>
@@ -10655,7 +10650,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>11</v>
       </c>
@@ -10669,7 +10664,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>12</v>
       </c>
@@ -10683,7 +10678,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>13</v>
       </c>
@@ -10710,15 +10705,15 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10732,7 +10727,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>80813644</v>
       </c>
@@ -10746,7 +10741,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>80813644</v>
       </c>
@@ -10760,7 +10755,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>80813644</v>
       </c>
@@ -10774,7 +10769,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80813608</v>
       </c>
@@ -10788,7 +10783,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>80813608</v>
       </c>
@@ -10802,7 +10797,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>80813608</v>
       </c>
@@ -10816,7 +10811,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>80813644</v>
       </c>
@@ -10830,7 +10825,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>80813644</v>
       </c>
@@ -10844,7 +10839,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>80813644</v>
       </c>
@@ -10858,7 +10853,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>80813608</v>
       </c>
@@ -10872,7 +10867,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>80813608</v>
       </c>
@@ -10886,7 +10881,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>80813608</v>
       </c>
@@ -10913,12 +10908,12 @@
       <selection activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
@@ -10926,7 +10921,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>114</v>
       </c>
@@ -10934,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>116</v>
       </c>
@@ -10942,7 +10937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>117</v>
       </c>
@@ -10950,7 +10945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>118</v>
       </c>
@@ -10958,7 +10953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>119</v>
       </c>
@@ -10966,7 +10961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>120</v>
       </c>
@@ -10974,7 +10969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>121</v>
       </c>
@@ -10982,7 +10977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>122</v>
       </c>
@@ -10990,7 +10985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>123</v>
       </c>
@@ -10998,7 +10993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>124</v>
       </c>
@@ -11006,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>125</v>
       </c>
@@ -11014,7 +11009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>126</v>
       </c>
@@ -11022,7 +11017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>127</v>
       </c>
@@ -11030,7 +11025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>128</v>
       </c>
@@ -11038,7 +11033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>129</v>
       </c>
@@ -11046,7 +11041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>130</v>
       </c>
@@ -11054,7 +11049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>131</v>
       </c>
@@ -11062,7 +11057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>132</v>
       </c>
@@ -11070,7 +11065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>133</v>
       </c>
@@ -11078,7 +11073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>134</v>
       </c>
@@ -11086,7 +11081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>135</v>
       </c>
@@ -11094,7 +11089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>136</v>
       </c>
@@ -11102,7 +11097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>137</v>
       </c>
@@ -11110,7 +11105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>138</v>
       </c>
@@ -11118,7 +11113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>139</v>
       </c>
@@ -11126,7 +11121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>140</v>
       </c>
@@ -11134,7 +11129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>141</v>
       </c>
@@ -11142,7 +11137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>142</v>
       </c>
@@ -11150,7 +11145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>143</v>
       </c>
@@ -11158,7 +11153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>144</v>
       </c>
@@ -11166,7 +11161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>145</v>
       </c>
@@ -11174,7 +11169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>146</v>
       </c>
@@ -11182,7 +11177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>147</v>
       </c>
@@ -11190,7 +11185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>148</v>
       </c>
@@ -11198,7 +11193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>149</v>
       </c>
@@ -11206,7 +11201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>150</v>
       </c>
@@ -11214,7 +11209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>151</v>
       </c>
@@ -11222,7 +11217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>152</v>
       </c>
@@ -11230,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>153</v>
       </c>
@@ -11238,7 +11233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>154</v>
       </c>
@@ -11246,7 +11241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>155</v>
       </c>
@@ -11254,7 +11249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>156</v>
       </c>
@@ -11262,7 +11257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>157</v>
       </c>
@@ -11270,7 +11265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>158</v>
       </c>
@@ -11278,7 +11273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>159</v>
       </c>
@@ -11286,7 +11281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>160</v>
       </c>
@@ -11294,7 +11289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>161</v>
       </c>
@@ -11302,7 +11297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>162</v>
       </c>
@@ -11310,7 +11305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>163</v>
       </c>
@@ -11318,7 +11313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>164</v>
       </c>
@@ -11326,7 +11321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>165</v>
       </c>
@@ -11334,7 +11329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>166</v>
       </c>
@@ -11342,7 +11337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>167</v>
       </c>
@@ -11350,7 +11345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>168</v>
       </c>
@@ -11358,7 +11353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>169</v>
       </c>
@@ -11366,7 +11361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>170</v>
       </c>
@@ -11374,7 +11369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>171</v>
       </c>
@@ -11382,7 +11377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>172</v>
       </c>
@@ -11390,7 +11385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>173</v>
       </c>
@@ -11398,7 +11393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>174</v>
       </c>
@@ -11406,7 +11401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>175</v>
       </c>
@@ -11414,7 +11409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>176</v>
       </c>
@@ -11422,7 +11417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>177</v>
       </c>
@@ -11430,7 +11425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>178</v>
       </c>
@@ -11438,7 +11433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>179</v>
       </c>
@@ -11446,7 +11441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>180</v>
       </c>
@@ -11454,7 +11449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>181</v>
       </c>
@@ -11462,7 +11457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>182</v>
       </c>
@@ -11470,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>183</v>
       </c>
@@ -11478,7 +11473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>184</v>
       </c>
@@ -11486,7 +11481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>185</v>
       </c>
@@ -11494,7 +11489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>186</v>
       </c>
@@ -11502,7 +11497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>187</v>
       </c>
@@ -11510,7 +11505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>188</v>
       </c>
@@ -11518,7 +11513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>189</v>
       </c>
@@ -11526,7 +11521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>190</v>
       </c>
@@ -11534,7 +11529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>191</v>
       </c>
@@ -11542,7 +11537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>192</v>
       </c>
@@ -11550,7 +11545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>193</v>
       </c>
@@ -11558,7 +11553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>194</v>
       </c>
@@ -11566,7 +11561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>195</v>
       </c>
@@ -11574,7 +11569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>196</v>
       </c>
@@ -11582,7 +11577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>197</v>
       </c>
@@ -11590,7 +11585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>198</v>
       </c>
@@ -11598,7 +11593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>199</v>
       </c>
@@ -11606,7 +11601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>200</v>
       </c>
@@ -11614,7 +11609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>201</v>
       </c>
@@ -11622,7 +11617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>202</v>
       </c>
@@ -11630,7 +11625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>203</v>
       </c>
@@ -11638,7 +11633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>204</v>
       </c>
@@ -11646,7 +11641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>205</v>
       </c>
@@ -11654,7 +11649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>206</v>
       </c>
@@ -11662,7 +11657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>207</v>
       </c>
@@ -11670,7 +11665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>208</v>
       </c>
@@ -11678,7 +11673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>209</v>
       </c>
@@ -11686,7 +11681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>210</v>
       </c>
@@ -11694,7 +11689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>211</v>
       </c>
@@ -11702,7 +11697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>212</v>
       </c>
@@ -11710,7 +11705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>213</v>
       </c>
@@ -11718,7 +11713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>214</v>
       </c>
@@ -11726,7 +11721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>215</v>
       </c>
@@ -11734,7 +11729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>216</v>
       </c>
@@ -11742,7 +11737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>217</v>
       </c>
@@ -11750,7 +11745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>218</v>
       </c>
@@ -11758,7 +11753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>219</v>
       </c>
@@ -11766,7 +11761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>220</v>
       </c>
@@ -11774,7 +11769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>221</v>
       </c>
@@ -11782,7 +11777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>222</v>
       </c>
@@ -11790,7 +11785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>223</v>
       </c>
@@ -11798,7 +11793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>224</v>
       </c>
@@ -11806,7 +11801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>225</v>
       </c>
@@ -11814,7 +11809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>226</v>
       </c>
@@ -11822,7 +11817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>227</v>
       </c>
@@ -11830,7 +11825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>228</v>
       </c>
@@ -11838,7 +11833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>229</v>
       </c>
@@ -11846,7 +11841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>230</v>
       </c>
@@ -11854,7 +11849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>231</v>
       </c>
@@ -11862,7 +11857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>232</v>
       </c>
@@ -11870,7 +11865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>233</v>
       </c>
@@ -11878,7 +11873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>234</v>
       </c>
@@ -11886,7 +11881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>235</v>
       </c>
@@ -11894,7 +11889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>115</v>
       </c>
